--- a/classfiers/mega/decisionTree/smote/mega-decisionTree-smote-results.xlsx
+++ b/classfiers/mega/decisionTree/smote/mega-decisionTree-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7740585774058577</v>
+        <v>0.771689497716895</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8726415094339622</v>
+        <v>0.8711340206185566</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8721840759678597</v>
+        <v>0.8689471657154861</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9891891891891892</v>
+        <v>0.9940828402366864</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9945652173913043</v>
+        <v>0.9970326409495549</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999444850255661</v>
+        <v>0.9970414201183432</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9536082474226805</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9940828402366864</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9762532981530343</v>
+        <v>0.9710982658959538</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9756756756756757</v>
+        <v>0.9704142011834318</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9945945945945946</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.997289972899729</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9972972972972973</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9893048128342246</v>
+        <v>0.9823529411764705</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9881656804733728</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9946236559139785</v>
+        <v>0.9852507374631269</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9945945945945946</v>
+        <v>0.985207100591716</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9433943275325525</v>
+        <v>0.9406389962532493</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9967567567567567</v>
+        <v>0.995266272189349</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9670747307584016</v>
+        <v>0.9649031329854385</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9678392987582178</v>
+        <v>0.9643219775217954</v>
       </c>
     </row>
   </sheetData>
